--- a/SubwayData/Excel/2호선 역간 거리 정보.xlsx
+++ b/SubwayData/Excel/2호선 역간 거리 정보.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isang-yun/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isang-yun/WebstormProjects/FreshRoute_BE/SubwayData/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8293D90A-BA1C-2642-AF82-53D33D5FF872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B28CFAA-2BEF-5D44-997F-98486E71B985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="500" windowWidth="27900" windowHeight="16940" xr2:uid="{C97B975E-1D17-3144-8665-972D52299765}"/>
   </bookViews>
@@ -93,27 +93,15 @@
     <t>건대입구</t>
   </si>
   <si>
-    <t>구의(광진구청)</t>
-  </si>
-  <si>
-    <t>강변(동서울터미널)</t>
-  </si>
-  <si>
     <t>잠실나루</t>
   </si>
   <si>
-    <t>잠실(송파구청)</t>
-  </si>
-  <si>
     <t>잠실새내</t>
   </si>
   <si>
     <t>종합운동장</t>
   </si>
   <si>
-    <t>삼성(무역센터)</t>
-  </si>
-  <si>
     <t>선릉</t>
   </si>
   <si>
@@ -123,9 +111,6 @@
     <t>강남</t>
   </si>
   <si>
-    <t>교대(법원·검찰청)</t>
-  </si>
-  <si>
     <t>서초</t>
   </si>
   <si>
@@ -138,9 +123,6 @@
     <t>낙성대</t>
   </si>
   <si>
-    <t>서울대입구(관악구청)</t>
-  </si>
-  <si>
     <t>봉천</t>
   </si>
   <si>
@@ -153,9 +135,6 @@
     <t>구로디지털단지</t>
   </si>
   <si>
-    <t>대림(구로구청)</t>
-  </si>
-  <si>
     <t>신도림</t>
   </si>
   <si>
@@ -183,15 +162,9 @@
     <t>아현</t>
   </si>
   <si>
-    <t>충정로(경기대입구)</t>
-  </si>
-  <si>
     <t>신설동</t>
   </si>
   <si>
-    <t>용두(동대문구청)</t>
-  </si>
-  <si>
     <t>신답</t>
   </si>
   <si>
@@ -208,6 +181,42 @@
   </si>
   <si>
     <t>까치산</t>
+  </si>
+  <si>
+    <t>구의</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강변</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠실</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>교대</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울대입구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대림</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>충정로</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>용두</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -616,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58EDAC8A-CCBE-D84D-AF54-384D277182C1}">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -815,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="D14" s="3">
         <v>1.6</v>
@@ -829,7 +838,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="D15" s="3">
         <v>0.9</v>
@@ -843,7 +852,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D16" s="3">
         <v>1.8</v>
@@ -857,7 +866,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="D17" s="3">
         <v>1</v>
@@ -871,7 +880,7 @@
         <v>4</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D18" s="3">
         <v>1.2</v>
@@ -885,7 +894,7 @@
         <v>4</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D19" s="3">
         <v>1.2</v>
@@ -899,7 +908,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
@@ -913,7 +922,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D21" s="3">
         <v>1.3</v>
@@ -927,7 +936,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D22" s="3">
         <v>1.2</v>
@@ -941,7 +950,7 @@
         <v>4</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D23" s="3">
         <v>0.8</v>
@@ -955,7 +964,7 @@
         <v>4</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="D24" s="3">
         <v>1.2</v>
@@ -969,7 +978,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D25" s="3">
         <v>0.7</v>
@@ -983,7 +992,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D26" s="3">
         <v>1.7</v>
@@ -997,7 +1006,7 @@
         <v>4</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D27" s="3">
         <v>1.6</v>
@@ -1011,7 +1020,7 @@
         <v>4</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D28" s="3">
         <v>1.7</v>
@@ -1025,7 +1034,7 @@
         <v>4</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="D29" s="3">
         <v>1</v>
@@ -1039,7 +1048,7 @@
         <v>4</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
@@ -1053,7 +1062,7 @@
         <v>4</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D31" s="3">
         <v>1.1000000000000001</v>
@@ -1067,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D32" s="3">
         <v>1.8</v>
@@ -1081,7 +1090,7 @@
         <v>4</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D33" s="3">
         <v>1.1000000000000001</v>
@@ -1095,7 +1104,7 @@
         <v>4</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D34" s="3">
         <v>1.1000000000000001</v>
@@ -1109,7 +1118,7 @@
         <v>4</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D35" s="3">
         <v>1.8</v>
@@ -1123,7 +1132,7 @@
         <v>4</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D36" s="3">
         <v>1.2</v>
@@ -1137,7 +1146,7 @@
         <v>4</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D37" s="3">
         <v>0.9</v>
@@ -1151,7 +1160,7 @@
         <v>4</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D38" s="3">
         <v>1.1000000000000001</v>
@@ -1165,7 +1174,7 @@
         <v>4</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D39" s="3">
         <v>2</v>
@@ -1179,7 +1188,7 @@
         <v>4</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D40" s="3">
         <v>1.1000000000000001</v>
@@ -1193,7 +1202,7 @@
         <v>4</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D41" s="3">
         <v>1.3</v>
@@ -1207,7 +1216,7 @@
         <v>4</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D42" s="3">
         <v>0.8</v>
@@ -1221,7 +1230,7 @@
         <v>4</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D43" s="3">
         <v>0.9</v>
@@ -1235,7 +1244,7 @@
         <v>4</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D44" s="3">
         <v>0.8</v>
@@ -1263,7 +1272,7 @@
         <v>4</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D46" s="3">
         <v>0</v>
@@ -1277,7 +1286,7 @@
         <v>4</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D47" s="3">
         <v>1.2</v>
@@ -1291,7 +1300,7 @@
         <v>4</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D48" s="3">
         <v>0.9</v>
@@ -1305,7 +1314,7 @@
         <v>4</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D49" s="3">
         <v>1</v>
@@ -1333,7 +1342,7 @@
         <v>4</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D51" s="3">
         <v>0</v>
@@ -1347,7 +1356,7 @@
         <v>4</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D52" s="3">
         <v>1</v>
@@ -1361,7 +1370,7 @@
         <v>4</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D53" s="3">
         <v>1.7</v>
@@ -1375,7 +1384,7 @@
         <v>4</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D54" s="3">
         <v>1.9</v>
@@ -1389,7 +1398,7 @@
         <v>4</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D55" s="3">
         <v>1.35</v>
